--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="66">
   <si>
     <t xml:space="preserve">Grafik </t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>DN</t>
-  </si>
-  <si>
-    <t>W</t>
   </si>
   <si>
     <t>U</t>
@@ -1320,1067 +1317,1067 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AG6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AF7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AK7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AM9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AF10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="AL10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AK11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AM11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK12" s="1" t="s">
+      <c r="AL12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AL12" s="1" t="s">
+      <c r="AM12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AM13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.25">
@@ -2687,1192 +2684,1192 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AM16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK17" s="1" t="s">
+      <c r="AL17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AL17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="AM17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AF18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA19" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AJ19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="AL19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="O20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="AL20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AM20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AK21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AM21" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="AM21" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AL23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:100" x14ac:dyDescent="0.25">

--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="70">
   <si>
     <t xml:space="preserve">Grafik </t>
   </si>
@@ -46,160 +46,172 @@
     <t>pielęgniarka 1</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>DN</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>pielęgniarka 2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>pielęgniarka 3</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>pielęgniarka 4</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>pielęgniarka 5</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>pielęgniarka 6</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>pielęgniarka 7</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>pielęgniarka 8</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>pielęgniarka 9</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>opiekunka 1</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>opiekunka 2</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>opiekunka 3</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>opiekunka 4</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>opiekunka 5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>opiekunka 6</t>
+  </si>
+  <si>
+    <t>opiekunka 7</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>opiekunka 8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>opiekunka 9</t>
   </si>
   <si>
     <t>136</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>pielęgniarka 2</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>pielęgniarka 3</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>pielęgniarka 4</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>pielęgniarka 5</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>pielęgniarka 6</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>pielęgniarka 7</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>pielęgniarka 8</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>pielęgniarka 9</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>opiekunka 1</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>opiekunka 2</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>opiekunka 3</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>opiekunka 4</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>opiekunka 5</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>opiekunka 6</t>
-  </si>
-  <si>
-    <t>opiekunka 7</t>
-  </si>
-  <si>
-    <t>opiekunka 8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>opiekunka 9</t>
   </si>
   <si>
     <t>184</t>
@@ -233,7 +245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="01ffffff"/>
+        <fgColor rgb="0132cd32"/>
       </patternFill>
     </fill>
     <fill>
@@ -243,17 +255,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="01ff3898"/>
+        <fgColor rgb="01fac090"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0132cd32"/>
+        <fgColor rgb="01ffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="01fac090"/>
+        <fgColor rgb="01ff3898"/>
       </patternFill>
     </fill>
     <fill>
@@ -668,114 +680,117 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>22</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+      <c r="Y2">
+        <v>24</v>
+      </c>
+      <c r="Z2">
+        <v>25</v>
+      </c>
+      <c r="AA2">
+        <v>26</v>
+      </c>
+      <c r="AB2">
+        <v>27</v>
+      </c>
+      <c r="AC2">
         <v>28</v>
       </c>
-      <c r="C2">
+      <c r="AD2">
         <v>29</v>
       </c>
-      <c r="D2">
+      <c r="AE2">
         <v>30</v>
       </c>
-      <c r="E2">
-        <v>31</v>
-      </c>
-      <c r="F2">
+      <c r="AF2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="AG2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="AH2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="AI2">
         <v>4</v>
       </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2">
         <v>6</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
-      <c r="N2">
-        <v>9</v>
-      </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
-      <c r="P2">
-        <v>11</v>
-      </c>
-      <c r="Q2">
-        <v>12</v>
-      </c>
-      <c r="R2">
-        <v>13</v>
-      </c>
-      <c r="S2">
-        <v>14</v>
-      </c>
-      <c r="T2">
-        <v>15</v>
-      </c>
-      <c r="U2">
-        <v>16</v>
-      </c>
-      <c r="V2">
-        <v>17</v>
-      </c>
-      <c r="W2">
-        <v>18</v>
-      </c>
-      <c r="X2">
-        <v>19</v>
-      </c>
-      <c r="Y2">
-        <v>20</v>
-      </c>
-      <c r="Z2">
-        <v>21</v>
-      </c>
-      <c r="AA2">
-        <v>22</v>
-      </c>
-      <c r="AB2">
-        <v>23</v>
-      </c>
-      <c r="AC2">
-        <v>24</v>
-      </c>
-      <c r="AD2">
-        <v>25</v>
-      </c>
-      <c r="AE2">
-        <v>26</v>
-      </c>
-      <c r="AF2">
-        <v>27</v>
-      </c>
-      <c r="AG2">
-        <v>28</v>
-      </c>
-      <c r="AH2">
-        <v>29</v>
-      </c>
-      <c r="AI2">
-        <v>30</v>
-      </c>
-      <c r="AJ2">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.25">
@@ -1080,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1175,22 +1190,25 @@
         <v>24</v>
       </c>
       <c r="AF4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1300,16 +1318,19 @@
         <v>5</v>
       </c>
       <c r="AK5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" t="s">
         <v>7</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>8</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1317,594 +1338,609 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="AB6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AD6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="P7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AD7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AN7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AM7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM8" s="1" t="s">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="Q10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AF10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1912,471 +1948,483 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AM11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AM11" s="1" t="s">
+      <c r="AN11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="N13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>40</v>
+      <c r="AB13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE13" s="1" t="s">
+      <c r="I14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AF13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK13" s="1" t="s">
+      <c r="K14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AL13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AN14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2682,1194 +2730,1224 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>12</v>
+      <c r="U16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="1" t="s">
+      <c r="X19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
+      <c r="Z20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AK16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL16" s="1" t="s">
+      <c r="S21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AM16" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>40</v>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN23" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="1" t="s">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>65</v>
+      <c r="AN25" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:100" x14ac:dyDescent="0.25">

--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="70">
   <si>
     <t xml:space="preserve">Grafik </t>
   </si>
@@ -160,6 +160,15 @@
     <t>36</t>
   </si>
   <si>
+    <t>opiekunka 10</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>opiekunka 2</t>
   </si>
   <si>
@@ -181,9 +190,6 @@
     <t>248</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>opiekunka 5</t>
   </si>
   <si>
@@ -215,12 +221,6 @@
   </si>
   <si>
     <t>184</t>
-  </si>
-  <si>
-    <t>opiekunka 10</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
 </sst>
 </file>
@@ -680,116 +680,134 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="N2">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
+      <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
         <v>13</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>14</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>15</v>
       </c>
-      <c r="Q2">
+      <c r="W2">
         <v>16</v>
       </c>
-      <c r="R2">
+      <c r="X2">
         <v>17</v>
       </c>
-      <c r="S2">
+      <c r="Y2">
         <v>18</v>
       </c>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="U2">
+      <c r="Z2">
+        <v>19</v>
+      </c>
+      <c r="AA2">
         <v>20</v>
       </c>
-      <c r="V2">
+      <c r="AB2">
         <v>21</v>
       </c>
-      <c r="W2">
+      <c r="AC2">
         <v>22</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>23</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>24</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>25</v>
       </c>
-      <c r="AA2">
+      <c r="AG2">
         <v>26</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>27</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
         <v>28</v>
       </c>
-      <c r="AD2">
+      <c r="AJ2">
         <v>29</v>
       </c>
-      <c r="AE2">
+      <c r="AK2">
         <v>30</v>
       </c>
-      <c r="AF2">
+      <c r="AL2">
         <v>1</v>
       </c>
-      <c r="AG2">
+      <c r="AM2">
         <v>2</v>
       </c>
-      <c r="AH2">
+      <c r="AN2">
         <v>3</v>
       </c>
-      <c r="AI2">
+      <c r="AO2">
         <v>4</v>
       </c>
-      <c r="AJ2">
-        <v>5</v>
-      </c>
-      <c r="AK2">
+      <c r="AP2">
+        <v>5</v>
+      </c>
+      <c r="AQ2">
         <v>6</v>
       </c>
     </row>
@@ -1095,27 +1113,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -1190,25 +1208,43 @@
         <v>24</v>
       </c>
       <c r="AF4">
+        <v>24</v>
+      </c>
+      <c r="AG4">
+        <v>24</v>
+      </c>
+      <c r="AH4">
+        <v>24</v>
+      </c>
+      <c r="AI4">
+        <v>24</v>
+      </c>
+      <c r="AJ4">
+        <v>24</v>
+      </c>
+      <c r="AK4">
+        <v>24</v>
+      </c>
+      <c r="AL4">
         <v>0</v>
       </c>
-      <c r="AG4">
+      <c r="AM4">
         <v>0</v>
       </c>
-      <c r="AH4">
+      <c r="AN4">
         <v>0</v>
       </c>
-      <c r="AI4">
+      <c r="AO4">
         <v>0</v>
       </c>
-      <c r="AJ4">
+      <c r="AP4">
         <v>0</v>
       </c>
-      <c r="AK4">
+      <c r="AQ4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1321,206 +1357,242 @@
         <v>5</v>
       </c>
       <c r="AL5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" t="s">
         <v>7</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AS5" t="s">
         <v>8</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AT5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="Q6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="U6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="Y6" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AH6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AK6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AL6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="4" t="s">
+      <c r="AS6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AT6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="M7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>19</v>
@@ -1529,142 +1601,160 @@
         <v>19</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AJ7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AF7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="AL7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AM7" s="4" t="s">
+      <c r="AS7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AN7" s="4" t="s">
+      <c r="AT7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="N8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="P8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="R8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="U8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="X8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X8" s="4" t="s">
+      <c r="AA8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="AE8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1674,100 +1764,118 @@
       <c r="AG8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AH8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>5</v>
+      <c r="AH8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AL8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AM8" s="4" t="s">
+      <c r="AS8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AN8" s="4" t="s">
+      <c r="AT8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>5</v>
@@ -1775,50 +1883,68 @@
       <c r="Z9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>11</v>
+      <c r="AA9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AG9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>5</v>
+      <c r="AG9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="AL9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AM9" s="4" t="s">
+      <c r="AS9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AN9" s="4" t="s">
+      <c r="AT9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1834,135 +1960,153 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="W10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="Z10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AA10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AH10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AD10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AJ10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AF10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="AL10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AM10" s="4" t="s">
+      <c r="AS10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AN10" s="4" t="s">
+      <c r="AT10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1971,147 +2115,165 @@
       <c r="J11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="M11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="4" t="s">
+      <c r="S11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AG11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>5</v>
+      <c r="AJ11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AK11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AL11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AM11" s="4" t="s">
+      <c r="AS11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AN11" s="4" t="s">
+      <c r="AT11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="M12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -2120,311 +2282,365 @@
       <c r="S12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC12" s="3" t="s">
+      <c r="T12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AE12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AG12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AH12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ12" s="3" t="s">
-        <v>5</v>
+      <c r="AH12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AK12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AL12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AM12" s="4" t="s">
+      <c r="AS12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AN12" s="4" t="s">
+      <c r="AT12" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>5</v>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>5</v>
+      <c r="T13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AB13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="3" t="s">
-        <v>5</v>
+      <c r="AH13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="AK13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AL13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AM13" s="4" t="s">
+      <c r="AS13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AN13" s="4" t="s">
+      <c r="AT13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="O14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="Q14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="4" t="s">
+      <c r="AA14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AF14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AH14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
-        <v>5</v>
+      <c r="AJ14" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AK14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AL14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM14" s="4" t="s">
+      <c r="AS14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AN14" s="4" t="s">
+      <c r="AT14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2730,56 +2946,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>11</v>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="M16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -2788,136 +3004,154 @@
       <c r="S16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AA16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AG16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AH16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="3" t="s">
-        <v>5</v>
+      <c r="AH16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AK16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AL16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AM16" s="4" t="s">
+      <c r="AS16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AN16" s="4" t="s">
+      <c r="AT16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>33</v>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>33</v>
@@ -2931,13 +3165,13 @@
       <c r="Z17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AA17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AA17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="AD17" s="6" t="s">
@@ -2946,423 +3180,495 @@
       <c r="AE17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AF17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK17" s="4" t="s">
-        <v>5</v>
+      <c r="AF17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AL17" s="4" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AM17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AN17" s="4" t="s">
+      <c r="AT17" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE18" s="4" t="s">
+      <c r="AI19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AF18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL18" s="4" t="s">
+      <c r="AL19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AM18" s="4" t="s">
+      <c r="AS19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AN18" s="4" t="s">
-        <v>53</v>
+      <c r="AT19" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN20" s="4" t="s">
-        <v>22</v>
+      <c r="AT20" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -3371,583 +3677,673 @@
       <c r="J21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="R21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="4" t="s">
+      <c r="Y22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL21" s="4" t="s">
+      <c r="AG22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AM21" s="4" t="s">
+      <c r="AS22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AN21" s="4" t="s">
+      <c r="AT22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="2" t="s">
+      <c r="O23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="4" t="s">
+      <c r="U23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN22" s="4" t="s">
+      <c r="X23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT23" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="4" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT24" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN24" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="Z25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN25" s="4" t="s">
+      <c r="AS25" s="4" t="s">
         <v>69</v>
+      </c>
+      <c r="AT25" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:100" x14ac:dyDescent="0.25">

--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -160,67 +160,67 @@
     <t>36</t>
   </si>
   <si>
+    <t>opiekunka 2</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>opiekunka 3</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>opiekunka 4</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>opiekunka 5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>opiekunka 6</t>
+  </si>
+  <si>
+    <t>opiekunka 7</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>opiekunka 8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>opiekunka 9</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
     <t>opiekunka 10</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>opiekunka 2</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>opiekunka 3</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>opiekunka 4</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>opiekunka 5</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>opiekunka 6</t>
-  </si>
-  <si>
-    <t>opiekunka 7</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>opiekunka 8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>opiekunka 9</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>184</t>
   </si>
 </sst>
 </file>
@@ -3115,43 +3115,43 @@
         <v>12</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>33</v>
@@ -3217,7 +3217,7 @@
         <v>5</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AS17" s="4" t="s">
         <v>50</v>
@@ -3248,95 +3248,95 @@
       <c r="G18" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>33</v>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>12</v>
+      <c r="L18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z18" s="6" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK18" s="6" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="AL18" s="4" t="s">
         <v>5</v>
@@ -3357,18 +3357,18 @@
         <v>5</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AS18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT18" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="AT18" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -3388,8 +3388,8 @@
       <c r="G19" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>12</v>
+      <c r="H19" t="s">
+        <v>5</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>19</v>
@@ -3398,64 +3398,64 @@
         <v>5</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE19" s="4" t="s">
         <v>19</v>
@@ -3476,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AL19" s="4" t="s">
         <v>5</v>
@@ -3497,10 +3497,10 @@
         <v>5</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AT19" s="4" t="s">
         <v>56</v>
@@ -3528,20 +3528,20 @@
       <c r="G20" t="s">
         <v>5</v>
       </c>
-      <c r="H20" t="s">
-        <v>5</v>
+      <c r="H20" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>19</v>
@@ -3553,70 +3553,70 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AC20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE20" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="AF20" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ20" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AK20" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AL20" s="4" t="s">
         <v>5</v>
@@ -3640,10 +3640,10 @@
         <v>16</v>
       </c>
       <c r="AS20" s="4" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="AT20" s="4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
@@ -3668,14 +3668,14 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>19</v>
+      <c r="H21" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>19</v>
@@ -3684,16 +3684,16 @@
         <v>5</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>19</v>
@@ -3702,10 +3702,10 @@
         <v>19</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>5</v>
@@ -3714,49 +3714,49 @@
         <v>12</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AD21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AG21" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AK21" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="4" t="s">
         <v>5</v>
@@ -3788,147 +3788,147 @@
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR22" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="AS22" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="AT22" s="4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -3948,95 +3948,95 @@
       <c r="G23" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>19</v>
+      <c r="H23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AI23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AL23" s="4" t="s">
         <v>5</v>
@@ -4057,13 +4057,13 @@
         <v>5</v>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AS23" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AT23" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
@@ -4088,95 +4088,95 @@
       <c r="G24" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>33</v>
+      <c r="H24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z24" s="6" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK24" s="6" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="AL24" s="4" t="s">
         <v>5</v>
@@ -4200,15 +4200,15 @@
         <v>66</v>
       </c>
       <c r="AS24" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -4228,95 +4228,95 @@
       <c r="G25" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>19</v>
+      <c r="H25" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z25" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG25" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AL25" s="4" t="s">
         <v>5</v>
@@ -4337,13 +4337,13 @@
         <v>5</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="AS25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT25" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="AT25" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:100" x14ac:dyDescent="0.25">

--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="71">
   <si>
     <t xml:space="preserve">Grafik </t>
   </si>
@@ -58,147 +58,156 @@
     <t>DN</t>
   </si>
   <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>pielęgniarka 2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>pielęgniarka 3</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>pielęgniarka 4</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>pielęgniarka 5</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>pielęgniarka 6</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>pielęgniarka 7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>pielęgniarka 8</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>pielęgniarka 9</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>pielęgniarka 2</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
     <t>216</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>opiekunka 1</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>opiekunka 2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>opiekunka 3</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>opiekunka 4</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>opiekunka 5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
     <t>64</t>
   </si>
   <si>
-    <t>pielęgniarka 3</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>pielęgniarka 4</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>pielęgniarka 5</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>pielęgniarka 6</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>pielęgniarka 7</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>pielęgniarka 8</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>pielęgniarka 9</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>opiekunka 1</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>opiekunka 2</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>opiekunka 3</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>opiekunka 4</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>opiekunka 5</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>opiekunka 6</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>opiekunka 7</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>168</t>
   </si>
   <si>
@@ -211,16 +220,10 @@
     <t>opiekunka 9</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
     <t>184</t>
   </si>
   <si>
     <t>opiekunka 10</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
 </sst>
 </file>
@@ -1655,18 +1658,18 @@
         <v>5</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1798,15 +1801,15 @@
         <v>15</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1935,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AS9" s="4" t="s">
         <v>28</v>
@@ -2075,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AS10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT10" s="4" t="s">
         <v>31</v>
@@ -2355,18 +2358,18 @@
         <v>5</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AS12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -2495,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AS13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AT13" s="4" t="s">
         <v>36</v>
@@ -2506,7 +2509,7 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -2635,10 +2638,10 @@
         <v>5</v>
       </c>
       <c r="AR14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS14" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="AS14" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="AT14" s="4" t="s">
         <v>44</v>
@@ -3217,10 +3220,10 @@
         <v>5</v>
       </c>
       <c r="AR17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS17" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="AS17" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="AT17" s="4" t="s">
         <v>51</v>
@@ -3357,18 +3360,18 @@
         <v>5</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="AS18" s="4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -3497,18 +3500,18 @@
         <v>5</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -3553,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>19</v>
@@ -3637,18 +3640,18 @@
         <v>5</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AS20" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AT20" s="4" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -3777,18 +3780,18 @@
         <v>5</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AS21" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="AT21" s="4" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -3917,18 +3920,18 @@
         <v>5</v>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AS22" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AT22" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -4057,18 +4060,18 @@
         <v>5</v>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AS23" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AT23" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -4122,7 +4125,7 @@
         <v>19</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>5</v>
@@ -4197,18 +4200,18 @@
         <v>5</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="AS24" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -4337,13 +4340,13 @@
         <v>5</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AS25" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AT25" s="4" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:100" x14ac:dyDescent="0.25">

--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="71">
   <si>
     <t xml:space="preserve">Grafik </t>
   </si>
@@ -46,153 +46,171 @@
     <t>pielęgniarka 1</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>DN</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>128</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>pielęgniarka 2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>pielęgniarka 3</t>
+  </si>
+  <si>
+    <t>264</t>
   </si>
   <si>
     <t>136</t>
   </si>
   <si>
-    <t>164</t>
+    <t>pielęgniarka 4</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>pielęgniarka 5</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>pielęgniarka 6</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>pielęgniarka 7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>pielęgniarka 8</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>pielęgniarka 9</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>opiekunka 1</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>116</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>pielęgniarka 2</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>opiekunka 2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>opiekunka 3</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>opiekunka 4</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>opiekunka 5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>opiekunka 6</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>opiekunka 7</t>
   </si>
   <si>
     <t>168</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>pielęgniarka 3</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>pielęgniarka 4</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>pielęgniarka 5</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>pielęgniarka 6</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>pielęgniarka 7</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>pielęgniarka 8</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>pielęgniarka 9</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>opiekunka 1</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>opiekunka 2</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>opiekunka 3</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>opiekunka 4</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>opiekunka 5</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>opiekunka 6</t>
-  </si>
-  <si>
-    <t>opiekunka 7</t>
-  </si>
-  <si>
     <t>opiekunka 8</t>
   </si>
   <si>
@@ -206,9 +224,6 @@
   </si>
   <si>
     <t>opiekunka 10</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
 </sst>
 </file>
@@ -233,7 +248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="01ffffff"/>
+        <fgColor rgb="0132cd32"/>
       </patternFill>
     </fill>
     <fill>
@@ -243,17 +258,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="01ff3898"/>
+        <fgColor rgb="01fac090"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0132cd32"/>
+        <fgColor rgb="01ffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="01fac090"/>
+        <fgColor rgb="01ff3898"/>
       </patternFill>
     </fill>
     <fill>
@@ -668,114 +683,135 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2">
         <v>28</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>29</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>31</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>8</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>9</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="P2">
-        <v>11</v>
-      </c>
-      <c r="Q2">
-        <v>12</v>
-      </c>
       <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
         <v>13</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>14</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>15</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>16</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>17</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>18</v>
       </c>
-      <c r="X2">
-        <v>19</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
+        <v>19</v>
+      </c>
+      <c r="AA2">
         <v>20</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>21</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>22</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>23</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>24</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>25</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>26</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>27</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>28</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>29</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>30</v>
       </c>
-      <c r="AJ2">
-        <v>31</v>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>2</v>
+      </c>
+      <c r="AN2">
+        <v>3</v>
+      </c>
+      <c r="AO2">
+        <v>4</v>
+      </c>
+      <c r="AP2">
+        <v>5</v>
+      </c>
+      <c r="AQ2">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.25">
@@ -1080,27 +1116,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -1189,8 +1225,29 @@
       <c r="AJ4">
         <v>24</v>
       </c>
+      <c r="AK4">
+        <v>24</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1300,254 +1357,317 @@
         <v>5</v>
       </c>
       <c r="AK5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" t="s">
         <v>7</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AS5" t="s">
         <v>8</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AT5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="P6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="U6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="AH6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AJ6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AS6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AT6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="K7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="V7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AJ7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AS7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AT7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1557,116 +1677,137 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AS8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AT8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1682,348 +1823,411 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AT9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="W10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK10" s="1" t="s">
+      <c r="AL10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AS10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AT10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AS11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AM11" s="1" t="s">
+      <c r="AT11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2033,350 +2237,413 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="T13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM12" s="1" t="s">
+      <c r="AH13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS13" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AT13" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE13" s="1" t="s">
+      <c r="O14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AF13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL13" s="1" t="s">
+      <c r="Q14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AM13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="AS14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AT14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2682,1194 +2949,1404 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="1" t="s">
+      <c r="AA16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="AI18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT19" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
+      <c r="AF20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AK16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL16" s="1" t="s">
+      <c r="Y21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AM16" s="1" t="s">
+      <c r="AS22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT23" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT24" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT25" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:100" x14ac:dyDescent="0.25">

--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -46,6 +46,9 @@
     <t>pielęgniarka 1</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>U</t>
   </si>
   <si>
@@ -61,169 +64,166 @@
     <t>128</t>
   </si>
   <si>
-    <t>152</t>
+    <t>164</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>pielęgniarka 2</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>pielęgniarka 3</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>pielęgniarka 4</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>pielęgniarka 5</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>pielęgniarka 6</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>pielęgniarka 7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>pielęgniarka 8</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>pielęgniarka 9</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>opiekunka 1</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>opiekunka 2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>opiekunka 3</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>opiekunka 4</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>opiekunka 5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>opiekunka 6</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>opiekunka 7</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>opiekunka 8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>opiekunka 9</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>opiekunka 10</t>
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>pielęgniarka 2</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>pielęgniarka 3</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>pielęgniarka 4</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>pielęgniarka 5</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>pielęgniarka 6</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>pielęgniarka 7</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>pielęgniarka 8</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>pielęgniarka 9</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>opiekunka 1</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>opiekunka 2</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>opiekunka 3</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>opiekunka 4</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>opiekunka 5</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>opiekunka 6</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>opiekunka 7</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>opiekunka 8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>opiekunka 9</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>opiekunka 10</t>
   </si>
 </sst>
 </file>
@@ -248,6 +248,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="01ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0132cd32"/>
       </patternFill>
     </fill>
@@ -259,11 +264,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="01fac090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="01ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -1412,124 +1412,124 @@
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>13</v>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="R6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="4" t="s">
+      <c r="X6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR6" s="4" t="s">
+      <c r="Y6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AS6" s="4" t="s">
+      <c r="AH6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AS6" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1552,118 +1552,118 @@
       <c r="H7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="4" t="s">
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AJ7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR7" s="4" t="s">
+      <c r="AJ7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AS7" s="4" t="s">
+      <c r="AS7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AT7" s="4" t="s">
+      <c r="AT7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1689,121 +1689,121 @@
       <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="4" t="s">
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AS8" s="4" t="s">
+      <c r="R8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AT8" s="4" t="s">
+      <c r="AT8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1829,121 +1829,121 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="4" t="s">
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AT9" s="4" t="s">
+      <c r="AT9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1981,109 +1981,109 @@
       <c r="K10" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="4" t="s">
+      <c r="L10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="4" t="s">
+      <c r="R10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AJ10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AL10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR10" s="4" t="s">
+      <c r="AL10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AS10" s="4" t="s">
+      <c r="AS10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AT10" s="4" t="s">
+      <c r="AT10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2109,56 +2109,56 @@
       <c r="G11" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>11</v>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Y11" s="6" t="s">
         <v>33</v>
@@ -2166,485 +2166,485 @@
       <c r="Z11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AA11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR11" s="4" t="s">
+      <c r="AA11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AS11" s="4" t="s">
+      <c r="AS11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AT11" s="4" t="s">
-        <v>36</v>
+      <c r="AT11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT12" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT13" s="4" t="s">
-        <v>36</v>
+      <c r="AT13" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR14" s="4" t="s">
+      <c r="AS14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS14" s="4" t="s">
+      <c r="AT14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AT14" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.25">
@@ -2951,1402 +2951,1402 @@
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR16" s="4" t="s">
+      <c r="AS16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS16" s="4" t="s">
+      <c r="AT16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="AT16" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR17" s="4" t="s">
+      <c r="AS17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT17" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AS17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT17" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR18" s="4" t="s">
+      <c r="AS18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AS18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT18" s="4" t="s">
-        <v>36</v>
+      <c r="AT18" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS19" s="4" t="s">
+      <c r="AT19" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AT19" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS20" s="4" t="s">
+      <c r="AT20" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="AT20" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT21" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT21" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT22" s="4" t="s">
+      <c r="AT22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT23" s="4" t="s">
-        <v>67</v>
+      <c r="AS23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT24" s="4" t="s">
+      <c r="AT24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT25" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT25" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:100" x14ac:dyDescent="0.25">

--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -40,81 +40,84 @@
     <t>Pielęgniarka 1</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 2</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>DN</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>164</t>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 3</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 4</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 5</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 6</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>84</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>Pielęgniarka 2</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 3</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 4</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 5</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 6</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>Pielęgniarka 7</t>
   </si>
   <si>
@@ -215,9 +218,6 @@
   </si>
   <si>
     <t>Opiekunka 10</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
 </sst>
 </file>
@@ -252,11 +252,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="01c8dfff"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="01ff8a00"/>
       </patternFill>
     </fill>
@@ -268,6 +263,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="01fac090"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="01c8dfff"/>
       </patternFill>
     </fill>
     <fill>
@@ -1317,178 +1317,178 @@
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="O6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>11</v>
+      <c r="V7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>6</v>
@@ -1497,16 +1497,16 @@
         <v>6</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AD7" s="7" t="s">
+      <c r="AD7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>19</v>
@@ -1522,98 +1522,98 @@
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>23</v>
@@ -1626,53 +1626,53 @@
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>9</v>
+      <c r="H9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="7" t="s">
+      <c r="O9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>6</v>
@@ -1684,16 +1684,16 @@
         <v>6</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>6</v>
@@ -1701,23 +1701,23 @@
       <c r="Z9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>10</v>
+      <c r="AA9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG9" s="3" t="s">
         <v>26</v>
@@ -1730,7 +1730,7 @@
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1743,15 +1743,15 @@
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -1760,7 +1760,7 @@
       <c r="K10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1769,11 +1769,11 @@
       <c r="N10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>13</v>
+      <c r="O10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>6</v>
@@ -1782,7 +1782,7 @@
         <v>6</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>6</v>
@@ -1790,31 +1790,31 @@
       <c r="U10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD10" s="7" t="s">
+      <c r="AD10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="AE10" s="3" t="s">
@@ -1834,56 +1834,56 @@
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>10</v>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>31</v>
@@ -1897,8 +1897,8 @@
       <c r="V11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W11" s="7" t="s">
-        <v>9</v>
+      <c r="W11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="X11" s="3" t="s">
         <v>6</v>
@@ -1907,19 +1907,19 @@
         <v>6</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="AE11" s="3" t="s">
         <v>6</v>
@@ -1931,77 +1931,77 @@
         <v>33</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>10</v>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="X12" s="3" t="s">
@@ -2011,19 +2011,19 @@
         <v>6</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>6</v>
@@ -2035,99 +2035,99 @@
         <v>33</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="N13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="AB13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AC13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>11</v>
+      <c r="AC13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="AE13" s="3" t="s">
         <v>6</v>
@@ -2136,114 +2136,114 @@
         <v>19</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
+      <c r="O14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W14" s="7" t="s">
+      <c r="V14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AC14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>9</v>
+      <c r="AC14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
@@ -2550,82 +2550,82 @@
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="U16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="X16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>6</v>
@@ -2633,48 +2633,48 @@
       <c r="AB16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AC16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD16" s="7" t="s">
-        <v>9</v>
+      <c r="AC16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="AE16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -2747,24 +2747,24 @@
         <v>31</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
@@ -2772,65 +2772,65 @@
       <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>10</v>
+      <c r="F18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>6</v>
@@ -2839,102 +2839,102 @@
         <v>6</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W19" s="7" t="s">
+      <c r="X19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X19" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="Y19" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z19" s="3" t="s">
         <v>6</v>
@@ -2943,146 +2943,146 @@
         <v>6</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AF19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="Z20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE20" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="AF20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>6</v>
@@ -3090,53 +3090,53 @@
       <c r="G21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="H21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>6</v>
@@ -3145,19 +3145,19 @@
         <v>6</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="AE21" s="3" t="s">
         <v>6</v>
@@ -3166,111 +3166,111 @@
         <v>19</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>62</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="H22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE22" s="5" t="s">
-        <v>10</v>
+      <c r="S22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH22" s="3" t="s">
         <v>21</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>31</v>
@@ -3371,114 +3371,114 @@
         <v>31</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG23" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH23" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>9</v>
+      <c r="H24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="7" t="s">
+      <c r="O24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE24" s="5" t="s">
-        <v>10</v>
+      <c r="AA24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="AF24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AG24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH24" s="3" t="s">
         <v>32</v>
@@ -3486,52 +3486,52 @@
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>31</v>
@@ -3579,13 +3579,13 @@
         <v>31</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">

--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="grafik" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="pracownicy" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="75">
   <si>
     <t>GRAFIK</t>
   </si>
@@ -218,13 +219,31 @@
   </si>
   <si>
     <t>Opiekunka 10</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Stanowisko/funkcja</t>
+  </si>
+  <si>
+    <t>Rodzaj umowy</t>
+  </si>
+  <si>
+    <t>Wymiar czasu pracy</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>UoP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -236,6 +255,9 @@
       <b/>
       <family val="4"/>
       <sz val="28"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="8">
@@ -303,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -325,6 +347,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5109,4 +5140,607 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:CV21"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="5"/>
+  <cols>
+    <col min="1" max="1" width="17" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="grafik" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="pracownicy" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="76">
   <si>
     <t>GRAFIK</t>
   </si>
@@ -31,12 +32,15 @@
     <t>Nadgodziny</t>
   </si>
   <si>
+    <t>Pracownicy dzienni</t>
+  </si>
+  <si>
+    <t>Dzieci</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Dzieci</t>
-  </si>
-  <si>
     <t>Pielęgniarka 1</t>
   </si>
   <si>
@@ -218,13 +222,31 @@
   </si>
   <si>
     <t>Opiekunka 10</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Stanowisko/funkcja</t>
+  </si>
+  <si>
+    <t>Rodzaj umowy</t>
+  </si>
+  <si>
+    <t>Wymiar czasu pracy</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>UoP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -236,6 +258,9 @@
       <b/>
       <family val="4"/>
       <sz val="28"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="8">
@@ -303,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -325,6 +350,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,301 +852,103 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="3" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1214,97 +1050,97 @@
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1312,3790 +1148,3790 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="AD10" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="X19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG24" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH24" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5109,4 +4945,607 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:CV21"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="5"/>
+  <cols>
+    <col min="1" max="1" width="17" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/cypress/fixtures/grafik.xlsx
+++ b/cypress/fixtures/grafik.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="70">
   <si>
     <t>GRAFIK</t>
   </si>
@@ -31,15 +31,21 @@
     <t>Nadgodziny</t>
   </si>
   <si>
+    <t>Pracownicy dzienni</t>
+  </si>
+  <si>
+    <t>Dzieci</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Dzieci</t>
-  </si>
-  <si>
     <t>Pielęgniarka 1</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>U</t>
   </si>
   <si>
@@ -55,169 +61,166 @@
     <t>128</t>
   </si>
   <si>
-    <t>152</t>
+    <t>164</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 2</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 3</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 4</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 5</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 6</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 8</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Pielęgniarka 9</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Opiekunka 1</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Opiekunka 2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Opiekunka 3</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Opiekunka 4</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Opiekunka 5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Opiekunka 6</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Opiekunka 7</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Opiekunka 8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Opiekunka 9</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Opiekunka 10</t>
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 2</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 3</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 4</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 5</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 6</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 7</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 8</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Pielęgniarka 9</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Opiekunka 1</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Opiekunka 2</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Opiekunka 3</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Opiekunka 4</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Opiekunka 5</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Opiekunka 6</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Opiekunka 7</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Opiekunka 8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Opiekunka 9</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>Opiekunka 10</t>
   </si>
 </sst>
 </file>
@@ -252,6 +255,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="01c8dfff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="01ff8a00"/>
       </patternFill>
     </fill>
@@ -263,11 +271,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="01fac090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="01c8dfff"/>
       </patternFill>
     </fill>
     <fill>
@@ -818,301 +821,103 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="3" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1214,97 +1019,97 @@
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1312,727 +1117,727 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="W11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH12" s="3" t="s">
         <v>36</v>
@@ -2042,199 +1847,199 @@
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>6</v>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>40</v>
@@ -2248,399 +2053,399 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>10</v>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF16" s="3" t="s">
         <v>44</v>
@@ -2657,100 +2462,100 @@
         <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH17" s="3" t="s">
         <v>49</v>
@@ -2760,95 +2565,95 @@
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF18" s="3" t="s">
         <v>51</v>
@@ -2857,105 +2662,105 @@
         <v>52</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>6</v>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG19" s="3" t="s">
         <v>54</v>
@@ -2968,98 +2773,98 @@
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>17</v>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG20" s="3" t="s">
         <v>58</v>
@@ -3072,98 +2877,98 @@
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG21" s="3" t="s">
         <v>41</v>
@@ -3176,95 +2981,95 @@
       <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>17</v>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE22" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE22" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="AF22" s="3" t="s">
         <v>44</v>
@@ -3273,7 +3078,7 @@
         <v>63</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -3281,94 +3086,94 @@
         <v>64</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF23" s="3" t="s">
         <v>65</v>
@@ -3384,104 +3189,104 @@
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>17</v>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE24" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AH24" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -3489,94 +3294,94 @@
         <v>68</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF25" s="3" t="s">
         <v>51</v>
@@ -3585,1517 +3390,1517 @@
         <v>42</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BE30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BM30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BQ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BR30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BU30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CG30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CH30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CI30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CL30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CM30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CN30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CP30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CQ30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CR30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CS30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
